--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{A39CDA81-2FD5-440D-9780-8C46B23B035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{D76B2FB0-6945-422F-94E9-6E8E15881504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="1"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,10 +764,10 @@
         <v>44722</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>36848</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>147307</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,13 +778,13 @@
         <v>37873</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>44644</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>36854</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>147340</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,13 +795,13 @@
         <v>37873</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>44616</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>36829</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>147434</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>37873</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>44758</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -827,11 +827,11 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>22102.1</v>
+        <v>33155.199999999997</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>88348.1</v>
+        <v>132556.20000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{D76B2FB0-6945-422F-94E9-6E8E15881504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4FDE6466-2BD1-46A8-BEE2-292B2310CA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="1"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Deferred Decision Uniform - Con" sheetId="1" r:id="rId1"/>
-    <sheet name="Deferred Decision Uniform - Pro" sheetId="2" r:id="rId2"/>
+    <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
+    <sheet name="Uniform - Proportional" sheetId="2" r:id="rId2"/>
+    <sheet name="Uniform - Random" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Test</t>
   </si>
@@ -624,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,10 +816,10 @@
         <v>44758</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>36852</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>147306</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,11 +828,230 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>33155.199999999997</v>
+        <v>36840.400000000001</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>132556.20000000001</v>
+        <v>147286.79999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37873</v>
+      </c>
+      <c r="C2">
+        <v>44651</v>
+      </c>
+      <c r="D2">
+        <v>29494</v>
+      </c>
+      <c r="E2">
+        <v>75829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37873</v>
+      </c>
+      <c r="C3">
+        <v>44688</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>37873</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37873</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37873</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37873</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37873</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37873</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37873</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>37873</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>2949.4</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>7582.9</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4FDE6466-2BD1-46A8-BEE2-292B2310CA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{8778D5AF-F78B-4810-A003-FB6DC62AD4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="2"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,10 +899,10 @@
         <v>44688</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>29452</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>75800</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,13 +913,13 @@
         <v>37873</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>44699</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>29528</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>75935</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,13 +930,13 @@
         <v>37873</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>44706</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>29658</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>76197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,13 +947,13 @@
         <v>37873</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>44698</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>29472</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>76085</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>37873</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>44762</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>2949.4</v>
+        <v>14760.4</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>7582.9</v>
+        <v>37984.6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{8778D5AF-F78B-4810-A003-FB6DC62AD4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B0385BE3-21C1-4FEF-B91A-164109C95C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="2"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,10 +967,10 @@
         <v>44762</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>29388</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>75419</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>37873</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>44822</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>14760.4</v>
+        <v>17699.2</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>37984.6</v>
+        <v>45526.5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B0385BE3-21C1-4FEF-B91A-164109C95C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{898A4CEB-813B-419D-B1F5-68A152335040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="2"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
     <sheet name="Uniform - Proportional" sheetId="2" r:id="rId2"/>
     <sheet name="Uniform - Random" sheetId="3" r:id="rId3"/>
+    <sheet name="Proportional - Constant" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Test</t>
   </si>
@@ -844,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,10 +985,10 @@
         <v>44822</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>29516</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>75761</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,13 +999,13 @@
         <v>37873</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>44656</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>29556</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>76138</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,13 +1016,13 @@
         <v>37873</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>44695</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>29402</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>75138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,13 +1033,13 @@
         <v>37873</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>44689</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>29331</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>75286</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,11 +1048,230 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>17699.2</v>
+        <v>29479.7</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>45526.5</v>
+        <v>75758.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37873</v>
+      </c>
+      <c r="C2">
+        <v>59893</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37873</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>37873</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37873</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37873</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37873</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37873</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37873</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37873</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>37873</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{898A4CEB-813B-419D-B1F5-68A152335040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{42755F54-57DA-43F4-9ABE-9B4D8C5BEFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="34560" windowHeight="18684" activeTab="3"/>
+    <workbookView xWindow="28716" yWindow="4248" windowWidth="34560" windowHeight="18684" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,2180 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Edges vs. incentivated nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7304617744699714E-2"/>
+          <c:y val="7.989526411657559E-2"/>
+          <c:w val="0.8853907645106005"/>
+          <c:h val="0.81064802862756913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform - Constant'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform - Constant'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1270228687"/>
+        <c:axId val="771178751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform - Constant'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Nodes with Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform - Constant'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="846045839"/>
+        <c:axId val="1274893887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270228687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771178751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771178751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270228687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1274893887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846045839"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="846045839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1274893887"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Incentivated nodes vs. Total Incentive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7304617744699714E-2"/>
+          <c:y val="7.989526411657559E-2"/>
+          <c:w val="0.8853907645106005"/>
+          <c:h val="0.81064802862756913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform - Constant'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Nodes with Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform - Constant'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94BA-4A38-8FB0-CC2C6FEEADF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1270228687"/>
+        <c:axId val="771178751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform - Constant'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform - Constant'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94BA-4A38-8FB0-CC2C6FEEADF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="846045839"/>
+        <c:axId val="1274893887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270228687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771178751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771178751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270228687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1274893887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846045839"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="846045839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1274893887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA8B15B-3F48-4821-8DAC-7F236A0ED820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB11EB2-4288-4BAD-B4AA-9A0067EFFE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +2793,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1065,7 +3240,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,10 +3277,10 @@
         <v>59893</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>28862</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,13 +3291,13 @@
         <v>37873</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>59872</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>28806</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28878</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,13 +3308,13 @@
         <v>37873</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>59871</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>28809</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>28867</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,13 +3325,13 @@
         <v>37873</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>59868</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>28806</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28880</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,13 +3342,13 @@
         <v>37873</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>59888</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>28804</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>28868</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,13 +3359,13 @@
         <v>37873</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>59895</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28867</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,13 +3376,13 @@
         <v>37873</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>59874</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>28802</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>28880</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1218,7 +3393,7 @@
         <v>37873</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>59894</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1267,11 +3442,11 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>0</v>
+        <v>20162.7</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>0</v>
+        <v>20210.2</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{42755F54-57DA-43F4-9ABE-9B4D8C5BEFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{DA89862E-B988-4B8E-AB9E-4717ADD750C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28716" yWindow="4248" windowWidth="34560" windowHeight="18684" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
     <sheet name="Uniform - Proportional" sheetId="2" r:id="rId2"/>
     <sheet name="Uniform - Random" sheetId="3" r:id="rId3"/>
     <sheet name="Proportional - Constant" sheetId="4" r:id="rId4"/>
+    <sheet name="Proportional - Proportional" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Test</t>
   </si>
@@ -3239,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,10 +3397,10 @@
         <v>59894</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>28806</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>28869</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3410,13 +3411,13 @@
         <v>37873</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>59877</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>28802</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>28869</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,13 +3428,13 @@
         <v>37873</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>59889</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>28804</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>28871</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,11 +3443,230 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>20162.7</v>
+        <v>28803.9</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>20210.2</v>
+        <v>28871.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37873</v>
+      </c>
+      <c r="C2">
+        <v>59890</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37873</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>37873</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37873</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37873</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37873</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37873</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37873</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37873</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>37873</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{DA89862E-B988-4B8E-AB9E-4717ADD750C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{882A6A04-61DF-422F-A988-023A7EAEBF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="4"/>
+    <workbookView xWindow="38472" yWindow="5100" windowWidth="34560" windowHeight="18684" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
@@ -2583,7 +2583,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,7 +2803,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3241,7 +3241,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3460,7 +3460,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,10 +3497,10 @@
         <v>59890</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>36352</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>134710</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,13 +3511,13 @@
         <v>37873</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>59888</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>36355</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>134708</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3528,13 +3528,13 @@
         <v>37873</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>59894</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>36355</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>134704</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3545,13 +3545,13 @@
         <v>37873</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>59887</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>36351</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>134712</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3562,13 +3562,13 @@
         <v>37873</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>59867</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>36353</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>134716</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3579,13 +3579,13 @@
         <v>37873</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>59873</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>36352</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>134725</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3596,13 +3596,13 @@
         <v>37873</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>59886</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>36352</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>134711</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3613,13 +3613,13 @@
         <v>37873</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>59879</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>36356</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>134717</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
         <v>37873</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>59881</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>0</v>
+        <v>29082.6</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>0</v>
+        <v>107770.3</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{882A6A04-61DF-422F-A988-023A7EAEBF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{919B1DEB-B809-46C5-BEED-045C372E7660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38472" yWindow="5100" windowWidth="34560" windowHeight="18684" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="38472" yWindow="5100" windowWidth="34560" windowHeight="18684" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Uniform - Random" sheetId="3" r:id="rId3"/>
     <sheet name="Proportional - Constant" sheetId="4" r:id="rId4"/>
     <sheet name="Proportional - Proportional" sheetId="5" r:id="rId5"/>
+    <sheet name="Proportional - Random" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Test</t>
   </si>
@@ -3459,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3633,10 +3634,10 @@
         <v>59881</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>36349</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>134704</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,13 +3648,13 @@
         <v>37873</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>59869</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>36358</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>134716</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,11 +3663,230 @@
       </c>
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
-        <v>29082.6</v>
+        <v>36353.300000000003</v>
       </c>
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>107770.3</v>
+        <v>134712.29999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37873</v>
+      </c>
+      <c r="C2">
+        <v>59874</v>
+      </c>
+      <c r="D2">
+        <v>27007</v>
+      </c>
+      <c r="E2">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37873</v>
+      </c>
+      <c r="C3">
+        <v>59891</v>
+      </c>
+      <c r="D3">
+        <v>27008</v>
+      </c>
+      <c r="E3">
+        <v>65135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>37873</v>
+      </c>
+      <c r="C4">
+        <v>59893</v>
+      </c>
+      <c r="D4">
+        <v>26900</v>
+      </c>
+      <c r="E4">
+        <v>65230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37873</v>
+      </c>
+      <c r="C5">
+        <v>59866</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37873</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37873</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37873</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37873</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37873</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>37873</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>8091.5</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>19590.099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Result.xlsx
+++ b/Test_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincenzo\Desktop\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{30C0E63E-A92C-433B-A7C9-10ED2B355496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{47D46D61-E1D7-4B60-9063-5FA5933D30D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform - Constant" sheetId="1" r:id="rId1"/>
@@ -965,6 +965,1136 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>134716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="846045839"/>
+        <c:axId val="1274893887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270228687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771178751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771178751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270228687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1274893887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846045839"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="846045839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1274893887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Edges vs. incentivated nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7304617744699714E-2"/>
+          <c:y val="7.989526411657559E-2"/>
+          <c:w val="0.8853907645106005"/>
+          <c:h val="0.81064802862756913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Proportional - Random'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Proportional - Random'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1270228687"/>
+        <c:axId val="771178751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Proportional - Random'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Nodes with Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Proportional - Random'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="846045839"/>
+        <c:axId val="1274893887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270228687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771178751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771178751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270228687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1274893887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846045839"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="846045839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1274893887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Incentivated nodes vs. Total Incentive</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7304617744699714E-2"/>
+          <c:y val="7.989526411657559E-2"/>
+          <c:w val="0.8853907645106005"/>
+          <c:h val="0.81064802862756913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Proportional - Random'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Nodes with Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Proportional - Random'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>27007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26948.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28FD-4C36-A8B8-CDFC8E069657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1270228687"/>
+        <c:axId val="771178751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Proportional - Random'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Incentive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Proportional - Random'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5809,6 +6939,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6633,6 +7843,1012 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11546,6 +13762,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CC149D-D6A1-4BE0-94CF-51B12EBDA10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159C22CA-16B3-4E79-B8CB-6DB537913CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -11842,6 +14135,292 @@
 </file>
 
 <file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
     <a:dk1>
@@ -14129,6 +16708,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
@@ -15013,7 +17878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
@@ -15233,8 +18098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15445,5 +18310,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>